--- a/biology/Biochimie/Succinyl-coenzyme_A/Succinyl-coenzyme_A.xlsx
+++ b/biology/Biochimie/Succinyl-coenzyme_A/Succinyl-coenzyme_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La succinyl-coenzyme A, usuellement abrégée en succinyl-CoA, est l'un des intermédiaires du Cycle de Krebs.
@@ -512,7 +524,9 @@
           <t>De l'α-cétoglutarate à la succinyl-CoA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La succinyl-CoA est issue de l'α-cétoglutarate par réduction de NAD+ et transfert sur la coenzyme A avec élimination d'une molécule de CO2. Le complexe alpha-cétoglutarate déshydrogénase catalyse cette réaction exergonique (ΔG° = −33 kJ/mol). L'énergie de cette réaction est stockée dans la liaison thioester de la succinyl-CoA. Ce complexe est très semblable au complexe pyruvate déshydrogénase et partage une origine commune. Cette réaction est irréversible.
 </t>
@@ -543,7 +557,9 @@
           <t>De la succinyl-CoA au succinate</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La succinyl-CoA permet la création de succinate en régénérant de la guanosine triphosphate (GTP) à partir de GDP et de phosphate inorganique Pi, et cela grâce à la liaison thioester à haut potentiel de transfert, c'est-à-dire qui possède une énergie libre d'hydrolyse très négative. Cette réaction permet aussi l'évacuation de la CoA-SH. La GTP pourra ensuite donner son phosphate à une ADP pour former de l'ATP. Cette réaction est catalysée par la succinyl-coenzyme A synthétase. Cette réaction est légèrement endergonique (ΔG° = 2,9 kJ/mol).
 </t>
